--- a/로스트아크/데이터테이블/SkillEffect_Table.xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0AE0E-2A58-4E2A-A2F0-B89EBE473A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21824EB2-D011-488E-99C6-ACB38F8F7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1463,27 +1463,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OJBECT_INSTANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON_OBJECT_OVERLAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[INFLICT_KNOCKBACK, ON_HIT]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OJBECT_INSTANCE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_OBJECT_OVERLAP]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_EXPLOSION]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[obj_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[state]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2386,24 +2386,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2447,6 +2429,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" activeCellId="4" sqref="C20:F20 C22:F22 C24:F24 C31:F31 C38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2942,11 +2942,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="43" t="s">
         <v>57</v>
       </c>
@@ -3136,11 +3136,11 @@
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="55" t="s">
         <v>58</v>
       </c>
@@ -3160,10 +3160,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="44">
@@ -3180,10 +3180,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
     </row>
     <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="44">
@@ -3200,10 +3200,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="46">
@@ -3220,42 +3220,42 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="48"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="48"/>
     </row>
     <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="49"/>
     </row>
     <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
     </row>
     <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C32" s="50">
@@ -3272,44 +3272,44 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="48"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="48"/>
     </row>
     <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="49"/>
     </row>
     <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C39" s="46">
@@ -3326,43 +3326,43 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="48"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="48"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="48"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
@@ -3481,7 +3481,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3570,7 +3570,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>40</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
@@ -3620,7 +3620,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>26</v>
@@ -3670,7 +3670,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>27</v>
@@ -3720,7 +3720,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>27</v>
@@ -3770,7 +3770,7 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>27</v>
@@ -3820,7 +3820,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>48</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>

--- a/로스트아크/데이터테이블/SkillEffect_Table.xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21824EB2-D011-488E-99C6-ACB38F8F7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFEC439-9BFF-4146-8ECC-850BC692B0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,15 +835,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//효과 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//스킬이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//효과설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,35 +935,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭발 피해 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 피해 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 피해 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MELEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상(날려보내기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,10 +978,6 @@
       </rPr>
       <t>(메모 참고)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체(창) 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1463,10 +1427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[INFLICT_KNOCKBACK, ON_HIT]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[OJBECT_INSTANCE]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1484,6 +1444,42 @@
   </si>
   <si>
     <t>[state]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N회 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_SKILL_USE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[INFLICT_KNOCKBACK,ON_HIT]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2386,6 +2382,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2429,24 +2443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" activeCellId="4" sqref="C20:F20 C22:F22 C24:F24 C31:F31 C38:F38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2942,13 +2938,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2965,49 +2961,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>28</v>
+      <c r="F6" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3015,117 +3014,115 @@
         <v>6</v>
       </c>
       <c r="C7" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="23">
-        <v>3</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>30</v>
+      <c r="B8" s="22"/>
+      <c r="C8" s="41">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C10" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" s="41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3136,13 +3133,13 @@
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="C18" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3150,219 +3147,219 @@
         <v>1</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="44">
         <v>2</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="44">
         <v>3</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="46">
         <v>4</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="48"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="48"/>
     </row>
     <row r="30" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="49"/>
     </row>
     <row r="31" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C32" s="50">
         <v>5</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="48"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="48"/>
     </row>
     <row r="37" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="49"/>
     </row>
     <row r="38" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C39" s="46">
         <v>6</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
       <c r="F40" s="48" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="48" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
       <c r="F42" s="48"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="48"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="48"/>
     </row>
     <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
@@ -3478,18 +3475,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.796875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.5" style="36" customWidth="1"/>
     <col min="10" max="10" width="32.5" style="36" bestFit="1" customWidth="1"/>
@@ -3507,29 +3504,29 @@
       <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>13</v>
@@ -3557,23 +3554,20 @@
       <c r="A2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="5">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="36">
         <v>0</v>
@@ -3582,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="3"/>
@@ -3607,23 +3601,20 @@
       <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="5">
         <v>10001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>100000</v>
       </c>
-      <c r="E3" s="5">
-        <v>1000</v>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H3" s="36">
         <v>0</v>
@@ -3632,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
@@ -3657,35 +3648,35 @@
       <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="5">
         <v>10002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>100000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5">
         <v>1000</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="36">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
@@ -3707,23 +3698,23 @@
       <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="5">
         <v>10003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>100000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>1000</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="36">
         <v>8</v>
@@ -3732,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
@@ -3757,23 +3748,23 @@
       <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="5">
         <v>10004</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <v>100000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>1000</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="36">
         <v>8</v>
@@ -3782,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
@@ -3807,35 +3798,35 @@
       <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="5">
         <v>10005</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>100000</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H7" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="36">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
@@ -3854,7 +3845,37 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D8" s="5"/>
+      <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -3872,7 +3893,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3890,7 +3911,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -3908,13 +3929,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3931,18 +3946,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3959,8 +3970,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -3977,38 +3998,28 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="C14" s="5"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
@@ -4033,8 +4044,18 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -4051,18 +4072,8 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -4079,6 +4090,34 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
+    <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Table.xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500326C-69E9-455E-9FEA-43A2A7F7EE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDEC66B-B074-44AA-ACB0-6C5A1E6A5CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -779,257 +779,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t># 효과의 parameter</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>hit_cnt</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 타격 횟수
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>hit_interval</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 타격 간격
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>stagger</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 무력화 수치
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>max_stack</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 최대 중첩 수
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>dispellable</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 해제 가능 여부 *</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <u/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>기본값 = 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(해제가능)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>obj_id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> : 발사체 오브젝트 id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등등</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>param_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,10 +927,6 @@
   </si>
   <si>
     <t>사각형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1728,84 +1475,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">효과를 구성하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">매개 변수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">매개 변수의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인자 값</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">영역을 따로(추가로) 지정할 필요가 없는 경우 
 </t>
     </r>
@@ -2088,7 +1757,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2151,48 +1820,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -2893,7 +2520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2924,193 +2551,190 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="16" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3122,40 +2746,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3191,13 +2815,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>436410</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>94768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095175</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3240,13 +2864,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>351443</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>54043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1084895</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3289,13 +2913,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>260295</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>72201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3634,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F73"/>
+  <dimension ref="B1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3653,13 +3277,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3667,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3681,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -3705,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -3713,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="39">
-        <f t="shared" ref="C6:C14" si="0">ROW(C6)-4</f>
+        <f t="shared" ref="C6:C12" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
       <c r="D6" s="40" t="s">
@@ -3723,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3741,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -3750,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3765,13 +3389,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3780,13 +3404,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3795,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3810,293 +3434,269 @@
         <v>8</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="51">
+        <v>2</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="51">
+        <v>3</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="55">
+        <v>4</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="43">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="47" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="43">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="46" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C30" s="60">
+        <v>5</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="52">
-        <v>1</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="54" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-    </row>
-    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="52">
-        <v>2</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-    </row>
-    <row r="23" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="52">
-        <v>3</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="56">
-        <v>4</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="58" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="37" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C37" s="55">
+        <v>6</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="59" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-    </row>
-    <row r="32" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C32" s="61">
-        <v>5</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="58" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="60"/>
-    </row>
-    <row r="38" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-    </row>
-    <row r="39" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C39" s="56">
-        <v>6</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="59" t="s">
-        <v>113</v>
-      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="59" t="s">
-        <v>114</v>
-      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="59"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="60"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="12"/>
@@ -4170,24 +3770,18 @@
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C71" s="12"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:E45"/>
-    <mergeCell ref="C26:E30"/>
-    <mergeCell ref="C33:E37"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:E43"/>
+    <mergeCell ref="C24:E28"/>
+    <mergeCell ref="C31:E35"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4201,9 +3795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4213,7 +3807,7 @@
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="9" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="9" bestFit="1" customWidth="1"/>
@@ -4226,35 +3820,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>49</v>
+      <c r="A1" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4271,11 +3865,11 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>116</v>
+      <c r="A2" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
@@ -4287,13 +3881,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>0</v>
@@ -4316,9 +3910,9 @@
       <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64" t="s">
-        <v>117</v>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="C3" s="16">
         <v>3050001</v>
@@ -4330,13 +3924,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>0</v>
@@ -4359,11 +3953,11 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>118</v>
+      <c r="A4" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="C4" s="16">
         <v>3050010</v>
@@ -4375,13 +3969,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>0</v>
@@ -4404,8 +3998,8 @@
       <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4429,8 +4023,8 @@
       <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -4454,11 +4048,11 @@
       <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>87</v>
+      <c r="A7" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C7" s="16">
         <v>3051800</v>
@@ -4470,11 +4064,11 @@
         <v>1024</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>0</v>
@@ -4497,9 +4091,9 @@
       <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64" t="s">
-        <v>88</v>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="16">
         <v>3051801</v>
@@ -4511,13 +4105,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="17">
         <v>4</v>
@@ -4540,11 +4134,11 @@
       <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>87</v>
+      <c r="A9" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="16">
         <v>3051810</v>
@@ -4556,11 +4150,11 @@
         <v>1024</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>0</v>
@@ -4583,9 +4177,9 @@
       <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64" t="s">
-        <v>88</v>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="16">
         <v>3051811</v>
@@ -4597,13 +4191,13 @@
         <v>100</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="17">
         <v>4</v>
@@ -4626,14 +4220,14 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>80</v>
+      <c r="A11" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4657,11 +4251,11 @@
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>88</v>
+      <c r="A12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C12" s="16">
         <v>3052500</v>
@@ -4673,13 +4267,13 @@
         <v>100</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="17">
         <v>4</v>
@@ -4702,9 +4296,9 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64" t="s">
-        <v>89</v>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="16">
         <v>3052501</v>
@@ -4716,13 +4310,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="17">
         <v>4</v>
@@ -4745,11 +4339,11 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>90</v>
+      <c r="A14" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="16">
         <v>3052510</v>
@@ -4761,13 +4355,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="17">
         <v>4</v>
@@ -4790,9 +4384,9 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
-        <v>91</v>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="C15" s="16">
         <v>3052511</v>
@@ -4804,13 +4398,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="17">
         <v>4</v>
@@ -4833,11 +4427,11 @@
       <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>53</v>
+      <c r="A16" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="16">
         <v>3052600</v>
@@ -4849,13 +4443,13 @@
         <v>3001</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>0</v>
@@ -4878,9 +4472,9 @@
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66" t="s">
-        <v>41</v>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="16">
         <v>3052601</v>
@@ -4892,13 +4486,13 @@
         <v>3002</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>0</v>
@@ -4921,9 +4515,9 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66" t="s">
-        <v>54</v>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="16">
         <v>3052602</v>
@@ -4935,13 +4529,13 @@
         <v>6001</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>0</v>
@@ -4964,9 +4558,9 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66" t="s">
-        <v>82</v>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="16">
         <v>3052603</v>
@@ -4978,13 +4572,13 @@
         <v>100</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>0</v>
@@ -5007,9 +4601,9 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66" t="s">
-        <v>119</v>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="C20" s="16">
         <v>3052604</v>
@@ -5021,13 +4615,13 @@
         <v>100</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="17">
         <v>8</v>
@@ -5050,9 +4644,9 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66" t="s">
-        <v>120</v>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="C21" s="16">
         <v>3052605</v>
@@ -5064,13 +4658,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="17">
         <v>8</v>
@@ -5093,9 +4687,9 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66" t="s">
-        <v>121</v>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="C22" s="16">
         <v>3052606</v>
@@ -5107,13 +4701,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="17">
         <v>8</v>
@@ -5136,9 +4730,9 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66" t="s">
-        <v>85</v>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="16">
         <v>3052607</v>
@@ -5150,13 +4744,13 @@
         <v>4000</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>0</v>
@@ -5179,9 +4773,9 @@
       <c r="W23" s="12"/>
     </row>
     <row r="24" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66" t="s">
-        <v>86</v>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="16">
         <v>3052608</v>
@@ -5193,13 +4787,13 @@
         <v>4001</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>0</v>
@@ -5222,11 +4816,11 @@
       <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>70</v>
+      <c r="A25" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="16">
         <v>3052700</v>
@@ -5238,13 +4832,13 @@
         <v>3001</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>0</v>
@@ -5267,9 +4861,9 @@
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66" t="s">
-        <v>71</v>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="16">
         <v>3052701</v>
@@ -5281,13 +4875,13 @@
         <v>3002</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>0</v>
@@ -5310,9 +4904,9 @@
       <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66" t="s">
-        <v>75</v>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="C27" s="16">
         <v>3052702</v>
@@ -5324,13 +4918,13 @@
         <v>100</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I27" s="17">
         <v>5</v>
@@ -5353,9 +4947,9 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66" t="s">
-        <v>72</v>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="16">
         <v>3052703</v>
@@ -5367,13 +4961,13 @@
         <v>4000</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>0</v>
@@ -5396,9 +4990,9 @@
       <c r="W28" s="12"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66" t="s">
-        <v>76</v>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="C29" s="16">
         <v>3052704</v>
@@ -5410,13 +5004,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="17">
         <v>10</v>
@@ -5439,9 +5033,9 @@
       <c r="W29" s="12"/>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66" t="s">
-        <v>77</v>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="C30" s="16">
         <v>3052705</v>
@@ -5453,13 +5047,13 @@
         <v>100</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" s="17">
         <v>10</v>
@@ -5482,9 +5076,9 @@
       <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66" t="s">
-        <v>78</v>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="C31" s="16">
         <v>3052706</v>
@@ -5496,13 +5090,13 @@
         <v>100</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" s="17">
         <v>10</v>
@@ -5514,9 +5108,9 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66" t="s">
-        <v>73</v>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="16">
         <v>3052707</v>
@@ -5528,13 +5122,13 @@
         <v>4000</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>0</v>
@@ -5546,9 +5140,9 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66" t="s">
-        <v>74</v>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="16">
         <v>3052708</v>
@@ -5560,13 +5154,13 @@
         <v>4001</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>0</v>
